--- a/CashFlow/CTLT_cashflow.xlsx
+++ b/CashFlow/CTLT_cashflow.xlsx
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1466000000.0</v>
+        <v>-205100000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1255000000.0</v>
+        <v>-142000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>871200000.0</v>
+        <v>-76400000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>556300000.0</v>
+        <v>-45600000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>242200000.0</v>
+        <v>-19600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-12800000.0</v>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>98900000.0</v>
+        <v>1283000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>126100000.0</v>
+        <v>1169000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>66800000.0</v>
+        <v>787300000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>39600000.0</v>
+        <v>481400000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-4300000.0</v>
+        <v>204700000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-40500000.0</v>
